--- a/Amazon_TestNG/TestInput/Inputs.xlsx
+++ b/Amazon_TestNG/TestInput/Inputs.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="165" windowWidth="20055" windowHeight="9210" activeTab="1"/>
+    <workbookView xWindow="765" yWindow="165" windowWidth="20055" windowHeight="9210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
-    <sheet name="search_for_item" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Add_To_Cart" sheetId="2" r:id="rId2"/>
+    <sheet name="View_Cart" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
   <si>
     <t>tc_id</t>
   </si>
@@ -39,15 +39,9 @@
     <t>n</t>
   </si>
   <si>
-    <t>tc002</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>search_for_item</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -114,18 +108,12 @@
     <t>ClickAction</t>
   </si>
   <si>
-    <t>Redmi 6 Pro (Black, 4GB RAM, 64GB Storage</t>
-  </si>
-  <si>
     <t>Wait for the item</t>
   </si>
   <si>
     <t>Click on item</t>
   </si>
   <si>
-    <t>//*[contains(text(),'Redmi 6 Pro (Black, 4GB RAM, 64GB Storage)')]</t>
-  </si>
-  <si>
     <t>//*[@id="p_89/Mi"]/span/a/span</t>
   </si>
   <si>
@@ -154,6 +142,69 @@
   </si>
   <si>
     <t>//*[@id="p_n_operating_system_browse-bin/1485077031"]/span/a/div/label/input</t>
+  </si>
+  <si>
+    <t>wait for add to cart button</t>
+  </si>
+  <si>
+    <t>click on add to cart</t>
+  </si>
+  <si>
+    <t>change Driver focus</t>
+  </si>
+  <si>
+    <t>changeDriverFocus</t>
+  </si>
+  <si>
+    <t>//*[contains(text(),'Redmi 6 Pro (Black, 3GB RAM, 32GB Storage)')]</t>
+  </si>
+  <si>
+    <t>//*[@id='add-to-cart-button']</t>
+  </si>
+  <si>
+    <t>Add_To_Cart</t>
+  </si>
+  <si>
+    <t>Wait For view Cart</t>
+  </si>
+  <si>
+    <t>Click on View Cart</t>
+  </si>
+  <si>
+    <t>View_Cart</t>
+  </si>
+  <si>
+    <t>Tc002</t>
+  </si>
+  <si>
+    <t>Tc003</t>
+  </si>
+  <si>
+    <t>selectAction</t>
+  </si>
+  <si>
+    <t>proceedToCheckout</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Wait For Proceed Button</t>
+  </si>
+  <si>
+    <t>Click on Proceed Button</t>
+  </si>
+  <si>
+    <t>//*[@id="hlb-view-cart-announce"]</t>
+  </si>
+  <si>
+    <t>Wait For Quantity Button</t>
+  </si>
+  <si>
+    <t>Select Quantity Button</t>
+  </si>
+  <si>
+    <t>//*[@name='quantity']</t>
   </si>
 </sst>
 </file>
@@ -499,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -538,13 +589,24 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -554,10 +616,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
@@ -571,70 +633,70 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24.75" customHeight="1">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.75" customHeight="1">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -642,33 +704,33 @@
     </row>
     <row r="5" spans="1:6" ht="24.75" customHeight="1">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.75" customHeight="1">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -676,33 +738,33 @@
     </row>
     <row r="7" spans="1:6" ht="24.75" customHeight="1">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.75" customHeight="1">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -710,33 +772,33 @@
     </row>
     <row r="9" spans="1:6" ht="24.75" customHeight="1">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.75" customHeight="1">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -744,33 +806,33 @@
     </row>
     <row r="11" spans="1:6" ht="24.75" customHeight="1">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.75" customHeight="1">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -778,33 +840,33 @@
     </row>
     <row r="13" spans="1:6" ht="24.75" customHeight="1">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.75" customHeight="1">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -812,19 +874,70 @@
     </row>
     <row r="15" spans="1:6" ht="24.75" customHeight="1">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24.75" customHeight="1">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -835,12 +948,141 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="19.5" customHeight="1"/>
+  <cols>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>